--- a/src/assets/master_file.xlsx
+++ b/src/assets/master_file.xlsx
@@ -4654,7 +4654,7 @@
         <v>94</v>
       </c>
       <c r="M2" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4689,7 +4689,7 @@
         <v>95</v>
       </c>
       <c r="M3" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4727,7 +4727,7 @@
         <v>115</v>
       </c>
       <c r="M4" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4765,7 +4765,7 @@
         <v>116</v>
       </c>
       <c r="M5" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4806,7 +4806,7 @@
         <v>134</v>
       </c>
       <c r="M6" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4844,7 +4844,7 @@
         <v>118</v>
       </c>
       <c r="M7" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4885,7 +4885,7 @@
         <v>135</v>
       </c>
       <c r="M8" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4923,7 +4923,7 @@
         <v>120</v>
       </c>
       <c r="M9" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4961,7 +4961,7 @@
         <v>121</v>
       </c>
       <c r="M10" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4999,7 +4999,7 @@
         <v>122</v>
       </c>
       <c r="M11" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -5037,7 +5037,7 @@
         <v>123</v>
       </c>
       <c r="M12" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -5075,7 +5075,7 @@
         <v>124</v>
       </c>
       <c r="M13" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -5113,7 +5113,7 @@
         <v>125</v>
       </c>
       <c r="M14" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -5151,7 +5151,7 @@
         <v>126</v>
       </c>
       <c r="M15" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -5189,7 +5189,7 @@
         <v>127</v>
       </c>
       <c r="M16" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -5227,7 +5227,7 @@
         <v>128</v>
       </c>
       <c r="M17" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -5265,7 +5265,7 @@
         <v>129</v>
       </c>
       <c r="M18" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -5303,7 +5303,7 @@
         <v>130</v>
       </c>
       <c r="M19" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -5341,7 +5341,7 @@
         <v>131</v>
       </c>
       <c r="M20" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -5379,7 +5379,7 @@
         <v>132</v>
       </c>
       <c r="M21" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -5417,7 +5417,7 @@
         <v>133</v>
       </c>
       <c r="M22" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
   </sheetData>
@@ -5458,7 +5458,7 @@
         <v>1357</v>
       </c>
       <c r="D2" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5472,7 +5472,7 @@
         <v>1358</v>
       </c>
       <c r="D3" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5486,7 +5486,7 @@
         <v>1359</v>
       </c>
       <c r="D4" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
   </sheetData>
@@ -5581,7 +5581,7 @@
         <v>189</v>
       </c>
       <c r="L2" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -5619,7 +5619,7 @@
         <v>190</v>
       </c>
       <c r="L3" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -5657,7 +5657,7 @@
         <v>191</v>
       </c>
       <c r="L4" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -5695,7 +5695,7 @@
         <v>192</v>
       </c>
       <c r="L5" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -5733,7 +5733,7 @@
         <v>193</v>
       </c>
       <c r="L6" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -5771,7 +5771,7 @@
         <v>194</v>
       </c>
       <c r="L7" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -5809,7 +5809,7 @@
         <v>195</v>
       </c>
       <c r="L8" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -5847,7 +5847,7 @@
         <v>196</v>
       </c>
       <c r="L9" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -5885,7 +5885,7 @@
         <v>197</v>
       </c>
       <c r="L10" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -5923,7 +5923,7 @@
         <v>198</v>
       </c>
       <c r="L11" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -5961,7 +5961,7 @@
         <v>199</v>
       </c>
       <c r="L12" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -5999,7 +5999,7 @@
         <v>200</v>
       </c>
       <c r="L13" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -6037,7 +6037,7 @@
         <v>201</v>
       </c>
       <c r="L14" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
       <c r="M14" t="s">
         <v>229</v>
@@ -6078,7 +6078,7 @@
         <v>202</v>
       </c>
       <c r="L15" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
       <c r="M15" t="s">
         <v>229</v>
@@ -6119,7 +6119,7 @@
         <v>203</v>
       </c>
       <c r="L16" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
       <c r="M16" t="s">
         <v>230</v>
@@ -6160,7 +6160,7 @@
         <v>204</v>
       </c>
       <c r="L17" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
       <c r="M17" t="s">
         <v>230</v>
@@ -6201,7 +6201,7 @@
         <v>205</v>
       </c>
       <c r="L18" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -6239,7 +6239,7 @@
         <v>206</v>
       </c>
       <c r="L19" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -6277,7 +6277,7 @@
         <v>207</v>
       </c>
       <c r="L20" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -6315,7 +6315,7 @@
         <v>208</v>
       </c>
       <c r="L21" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -6353,7 +6353,7 @@
         <v>209</v>
       </c>
       <c r="L22" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -6391,7 +6391,7 @@
         <v>210</v>
       </c>
       <c r="L23" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -6429,7 +6429,7 @@
         <v>211</v>
       </c>
       <c r="L24" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -6467,7 +6467,7 @@
         <v>212</v>
       </c>
       <c r="L25" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -6505,7 +6505,7 @@
         <v>213</v>
       </c>
       <c r="L26" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -6543,7 +6543,7 @@
         <v>214</v>
       </c>
       <c r="L27" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -6581,7 +6581,7 @@
         <v>215</v>
       </c>
       <c r="L28" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
       <c r="N28" t="s">
         <v>229</v>
@@ -6622,7 +6622,7 @@
         <v>216</v>
       </c>
       <c r="L29" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
       <c r="N29" t="s">
         <v>229</v>
@@ -6663,7 +6663,7 @@
         <v>217</v>
       </c>
       <c r="L30" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -6701,7 +6701,7 @@
         <v>218</v>
       </c>
       <c r="L31" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -6739,7 +6739,7 @@
         <v>219</v>
       </c>
       <c r="L32" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
       <c r="N32" t="s">
         <v>230</v>
@@ -6780,7 +6780,7 @@
         <v>220</v>
       </c>
       <c r="L33" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
       <c r="N33" t="s">
         <v>230</v>
@@ -6821,7 +6821,7 @@
         <v>221</v>
       </c>
       <c r="L34" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
       <c r="N34" t="s">
         <v>231</v>
@@ -6862,7 +6862,7 @@
         <v>222</v>
       </c>
       <c r="L35" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
       <c r="N35" t="s">
         <v>231</v>
@@ -6903,7 +6903,7 @@
         <v>223</v>
       </c>
       <c r="L36" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
       <c r="N36" t="s">
         <v>232</v>
@@ -6944,7 +6944,7 @@
         <v>224</v>
       </c>
       <c r="L37" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
       <c r="N37" t="s">
         <v>232</v>
@@ -6985,7 +6985,7 @@
         <v>225</v>
       </c>
       <c r="L38" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
       <c r="N38" t="s">
         <v>233</v>
@@ -7026,7 +7026,7 @@
         <v>226</v>
       </c>
       <c r="L39" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
       <c r="N39" t="s">
         <v>233</v>
@@ -7067,7 +7067,7 @@
         <v>227</v>
       </c>
       <c r="L40" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
       <c r="N40" t="s">
         <v>234</v>
@@ -7108,7 +7108,7 @@
         <v>228</v>
       </c>
       <c r="L41" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
       <c r="N41" t="s">
         <v>234</v>
@@ -7164,7 +7164,7 @@
         <v>243</v>
       </c>
       <c r="F2" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7184,7 +7184,7 @@
         <v>244</v>
       </c>
       <c r="F3" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7204,7 +7204,7 @@
         <v>245</v>
       </c>
       <c r="F4" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7224,7 +7224,7 @@
         <v>246</v>
       </c>
       <c r="F5" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7244,7 +7244,7 @@
         <v>247</v>
       </c>
       <c r="F6" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7264,7 +7264,7 @@
         <v>248</v>
       </c>
       <c r="F7" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7284,7 +7284,7 @@
         <v>249</v>
       </c>
       <c r="F8" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7304,7 +7304,7 @@
         <v>250</v>
       </c>
       <c r="F9" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7324,7 +7324,7 @@
         <v>251</v>
       </c>
       <c r="F10" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7344,7 +7344,7 @@
         <v>252</v>
       </c>
       <c r="F11" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7364,7 +7364,7 @@
         <v>253</v>
       </c>
       <c r="F12" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7384,7 +7384,7 @@
         <v>254</v>
       </c>
       <c r="F13" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -7404,7 +7404,7 @@
         <v>255</v>
       </c>
       <c r="F14" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -7424,7 +7424,7 @@
         <v>256</v>
       </c>
       <c r="F15" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -7444,7 +7444,7 @@
         <v>257</v>
       </c>
       <c r="F16" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7464,7 +7464,7 @@
         <v>258</v>
       </c>
       <c r="F17" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7484,7 +7484,7 @@
         <v>259</v>
       </c>
       <c r="F18" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7504,7 +7504,7 @@
         <v>260</v>
       </c>
       <c r="F19" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7524,7 +7524,7 @@
         <v>261</v>
       </c>
       <c r="F20" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7544,7 +7544,7 @@
         <v>262</v>
       </c>
       <c r="F21" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7564,7 +7564,7 @@
         <v>263</v>
       </c>
       <c r="F22" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7584,7 +7584,7 @@
         <v>264</v>
       </c>
       <c r="F23" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7604,7 +7604,7 @@
         <v>265</v>
       </c>
       <c r="F24" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7624,7 +7624,7 @@
         <v>266</v>
       </c>
       <c r="F25" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7644,7 +7644,7 @@
         <v>267</v>
       </c>
       <c r="F26" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7664,7 +7664,7 @@
         <v>268</v>
       </c>
       <c r="F27" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7684,7 +7684,7 @@
         <v>269</v>
       </c>
       <c r="F28" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7704,7 +7704,7 @@
         <v>270</v>
       </c>
       <c r="F29" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7724,7 +7724,7 @@
         <v>271</v>
       </c>
       <c r="F30" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7744,7 +7744,7 @@
         <v>272</v>
       </c>
       <c r="F31" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7764,7 +7764,7 @@
         <v>273</v>
       </c>
       <c r="F32" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7784,7 +7784,7 @@
         <v>274</v>
       </c>
       <c r="F33" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7804,7 +7804,7 @@
         <v>275</v>
       </c>
       <c r="F34" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7824,7 +7824,7 @@
         <v>276</v>
       </c>
       <c r="F35" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7844,7 +7844,7 @@
         <v>277</v>
       </c>
       <c r="F36" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7864,7 +7864,7 @@
         <v>278</v>
       </c>
       <c r="F37" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7884,7 +7884,7 @@
         <v>279</v>
       </c>
       <c r="F38" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7904,7 +7904,7 @@
         <v>280</v>
       </c>
       <c r="F39" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7924,7 +7924,7 @@
         <v>281</v>
       </c>
       <c r="F40" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7944,7 +7944,7 @@
         <v>282</v>
       </c>
       <c r="F41" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7964,7 +7964,7 @@
         <v>283</v>
       </c>
       <c r="F42" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7984,7 +7984,7 @@
         <v>284</v>
       </c>
       <c r="F43" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8004,7 +8004,7 @@
         <v>285</v>
       </c>
       <c r="F44" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8024,7 +8024,7 @@
         <v>286</v>
       </c>
       <c r="F45" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8044,7 +8044,7 @@
         <v>287</v>
       </c>
       <c r="F46" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8064,7 +8064,7 @@
         <v>288</v>
       </c>
       <c r="F47" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8084,7 +8084,7 @@
         <v>289</v>
       </c>
       <c r="F48" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8104,7 +8104,7 @@
         <v>290</v>
       </c>
       <c r="F49" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8124,7 +8124,7 @@
         <v>291</v>
       </c>
       <c r="F50" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8144,7 +8144,7 @@
         <v>292</v>
       </c>
       <c r="F51" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8164,7 +8164,7 @@
         <v>293</v>
       </c>
       <c r="F52" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8184,7 +8184,7 @@
         <v>294</v>
       </c>
       <c r="F53" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8204,7 +8204,7 @@
         <v>295</v>
       </c>
       <c r="F54" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8224,7 +8224,7 @@
         <v>296</v>
       </c>
       <c r="F55" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8244,7 +8244,7 @@
         <v>297</v>
       </c>
       <c r="F56" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8264,7 +8264,7 @@
         <v>298</v>
       </c>
       <c r="F57" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8284,7 +8284,7 @@
         <v>299</v>
       </c>
       <c r="F58" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8304,7 +8304,7 @@
         <v>300</v>
       </c>
       <c r="F59" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8324,7 +8324,7 @@
         <v>301</v>
       </c>
       <c r="F60" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8344,7 +8344,7 @@
         <v>302</v>
       </c>
       <c r="F61" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8364,7 +8364,7 @@
         <v>303</v>
       </c>
       <c r="F62" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8384,7 +8384,7 @@
         <v>304</v>
       </c>
       <c r="F63" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8404,7 +8404,7 @@
         <v>305</v>
       </c>
       <c r="F64" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8424,7 +8424,7 @@
         <v>306</v>
       </c>
       <c r="F65" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8444,7 +8444,7 @@
         <v>307</v>
       </c>
       <c r="F66" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8464,7 +8464,7 @@
         <v>308</v>
       </c>
       <c r="F67" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8484,7 +8484,7 @@
         <v>309</v>
       </c>
       <c r="F68" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8504,7 +8504,7 @@
         <v>310</v>
       </c>
       <c r="F69" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8524,7 +8524,7 @@
         <v>311</v>
       </c>
       <c r="F70" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8544,7 +8544,7 @@
         <v>312</v>
       </c>
       <c r="F71" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8564,7 +8564,7 @@
         <v>313</v>
       </c>
       <c r="F72" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8584,7 +8584,7 @@
         <v>314</v>
       </c>
       <c r="F73" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8604,7 +8604,7 @@
         <v>315</v>
       </c>
       <c r="F74" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8624,7 +8624,7 @@
         <v>316</v>
       </c>
       <c r="F75" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8644,7 +8644,7 @@
         <v>317</v>
       </c>
       <c r="F76" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8664,7 +8664,7 @@
         <v>318</v>
       </c>
       <c r="F77" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8684,7 +8684,7 @@
         <v>319</v>
       </c>
       <c r="F78" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8704,7 +8704,7 @@
         <v>320</v>
       </c>
       <c r="F79" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8724,7 +8724,7 @@
         <v>321</v>
       </c>
       <c r="F80" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8744,7 +8744,7 @@
         <v>322</v>
       </c>
       <c r="F81" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8764,7 +8764,7 @@
         <v>323</v>
       </c>
       <c r="F82" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8784,7 +8784,7 @@
         <v>324</v>
       </c>
       <c r="F83" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8804,7 +8804,7 @@
         <v>325</v>
       </c>
       <c r="F84" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8824,7 +8824,7 @@
         <v>326</v>
       </c>
       <c r="F85" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8844,7 +8844,7 @@
         <v>327</v>
       </c>
       <c r="F86" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8864,7 +8864,7 @@
         <v>328</v>
       </c>
       <c r="F87" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8884,7 +8884,7 @@
         <v>329</v>
       </c>
       <c r="F88" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8904,7 +8904,7 @@
         <v>330</v>
       </c>
       <c r="F89" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8924,7 +8924,7 @@
         <v>331</v>
       </c>
       <c r="F90" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8944,7 +8944,7 @@
         <v>332</v>
       </c>
       <c r="F91" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8964,7 +8964,7 @@
         <v>333</v>
       </c>
       <c r="F92" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8984,7 +8984,7 @@
         <v>334</v>
       </c>
       <c r="F93" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9004,7 +9004,7 @@
         <v>335</v>
       </c>
       <c r="F94" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9024,7 +9024,7 @@
         <v>336</v>
       </c>
       <c r="F95" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9044,7 +9044,7 @@
         <v>337</v>
       </c>
       <c r="F96" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9064,7 +9064,7 @@
         <v>338</v>
       </c>
       <c r="F97" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9084,7 +9084,7 @@
         <v>339</v>
       </c>
       <c r="F98" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9104,7 +9104,7 @@
         <v>340</v>
       </c>
       <c r="F99" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9124,7 +9124,7 @@
         <v>341</v>
       </c>
       <c r="F100" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9144,7 +9144,7 @@
         <v>342</v>
       </c>
       <c r="F101" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9164,7 +9164,7 @@
         <v>343</v>
       </c>
       <c r="F102" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9184,7 +9184,7 @@
         <v>344</v>
       </c>
       <c r="F103" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -9204,7 +9204,7 @@
         <v>345</v>
       </c>
       <c r="F104" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -9224,7 +9224,7 @@
         <v>346</v>
       </c>
       <c r="F105" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -9244,7 +9244,7 @@
         <v>347</v>
       </c>
       <c r="F106" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -9264,7 +9264,7 @@
         <v>348</v>
       </c>
       <c r="F107" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -9284,7 +9284,7 @@
         <v>349</v>
       </c>
       <c r="F108" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -9304,7 +9304,7 @@
         <v>350</v>
       </c>
       <c r="F109" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -9324,7 +9324,7 @@
         <v>351</v>
       </c>
       <c r="F110" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -9344,7 +9344,7 @@
         <v>352</v>
       </c>
       <c r="F111" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -9364,7 +9364,7 @@
         <v>353</v>
       </c>
       <c r="F112" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -9384,7 +9384,7 @@
         <v>354</v>
       </c>
       <c r="F113" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -9404,7 +9404,7 @@
         <v>355</v>
       </c>
       <c r="F114" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -9424,7 +9424,7 @@
         <v>356</v>
       </c>
       <c r="F115" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -9444,7 +9444,7 @@
         <v>357</v>
       </c>
       <c r="F116" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -9464,7 +9464,7 @@
         <v>358</v>
       </c>
       <c r="F117" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -9484,7 +9484,7 @@
         <v>359</v>
       </c>
       <c r="F118" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -9504,7 +9504,7 @@
         <v>360</v>
       </c>
       <c r="F119" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -9524,7 +9524,7 @@
         <v>361</v>
       </c>
       <c r="F120" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -9544,7 +9544,7 @@
         <v>362</v>
       </c>
       <c r="F121" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -9564,7 +9564,7 @@
         <v>363</v>
       </c>
       <c r="F122" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -9584,7 +9584,7 @@
         <v>364</v>
       </c>
       <c r="F123" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -9604,7 +9604,7 @@
         <v>365</v>
       </c>
       <c r="F124" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -9624,7 +9624,7 @@
         <v>366</v>
       </c>
       <c r="F125" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -9644,7 +9644,7 @@
         <v>367</v>
       </c>
       <c r="F126" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -9664,7 +9664,7 @@
         <v>368</v>
       </c>
       <c r="F127" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -9684,7 +9684,7 @@
         <v>369</v>
       </c>
       <c r="F128" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -9704,7 +9704,7 @@
         <v>370</v>
       </c>
       <c r="F129" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -9724,7 +9724,7 @@
         <v>371</v>
       </c>
       <c r="F130" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -9744,7 +9744,7 @@
         <v>372</v>
       </c>
       <c r="F131" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -9764,7 +9764,7 @@
         <v>373</v>
       </c>
       <c r="F132" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -9784,7 +9784,7 @@
         <v>374</v>
       </c>
       <c r="F133" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -9804,7 +9804,7 @@
         <v>375</v>
       </c>
       <c r="F134" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -9824,7 +9824,7 @@
         <v>376</v>
       </c>
       <c r="F135" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -9844,7 +9844,7 @@
         <v>377</v>
       </c>
       <c r="F136" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -9864,7 +9864,7 @@
         <v>378</v>
       </c>
       <c r="F137" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -9884,7 +9884,7 @@
         <v>379</v>
       </c>
       <c r="F138" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -9904,7 +9904,7 @@
         <v>380</v>
       </c>
       <c r="F139" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -9924,7 +9924,7 @@
         <v>381</v>
       </c>
       <c r="F140" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -9944,7 +9944,7 @@
         <v>382</v>
       </c>
       <c r="F141" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
   </sheetData>
@@ -10012,7 +10012,7 @@
         <v>587</v>
       </c>
       <c r="H2" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10035,7 +10035,7 @@
         <v>588</v>
       </c>
       <c r="H3" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10061,7 +10061,7 @@
         <v>589</v>
       </c>
       <c r="H4" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10084,7 +10084,7 @@
         <v>590</v>
       </c>
       <c r="H5" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10107,7 +10107,7 @@
         <v>591</v>
       </c>
       <c r="H6" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -10127,7 +10127,7 @@
         <v>592</v>
       </c>
       <c r="H7" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -10150,7 +10150,7 @@
         <v>593</v>
       </c>
       <c r="H8" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10173,7 +10173,7 @@
         <v>594</v>
       </c>
       <c r="H9" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -10196,7 +10196,7 @@
         <v>595</v>
       </c>
       <c r="H10" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10219,7 +10219,7 @@
         <v>596</v>
       </c>
       <c r="H11" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10242,7 +10242,7 @@
         <v>597</v>
       </c>
       <c r="H12" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10265,7 +10265,7 @@
         <v>598</v>
       </c>
       <c r="H13" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10288,7 +10288,7 @@
         <v>599</v>
       </c>
       <c r="H14" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10314,7 +10314,7 @@
         <v>600</v>
       </c>
       <c r="H15" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -10340,7 +10340,7 @@
         <v>601</v>
       </c>
       <c r="H16" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -10363,7 +10363,7 @@
         <v>602</v>
       </c>
       <c r="H17" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -10386,7 +10386,7 @@
         <v>603</v>
       </c>
       <c r="H18" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -10409,7 +10409,7 @@
         <v>604</v>
       </c>
       <c r="H19" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -10435,7 +10435,7 @@
         <v>605</v>
       </c>
       <c r="H20" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -10455,7 +10455,7 @@
         <v>606</v>
       </c>
       <c r="H21" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -10478,7 +10478,7 @@
         <v>607</v>
       </c>
       <c r="H22" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -10501,7 +10501,7 @@
         <v>608</v>
       </c>
       <c r="H23" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -10527,7 +10527,7 @@
         <v>609</v>
       </c>
       <c r="H24" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -10550,7 +10550,7 @@
         <v>610</v>
       </c>
       <c r="H25" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -10576,7 +10576,7 @@
         <v>611</v>
       </c>
       <c r="H26" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -10599,7 +10599,7 @@
         <v>612</v>
       </c>
       <c r="H27" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -10622,7 +10622,7 @@
         <v>613</v>
       </c>
       <c r="H28" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -10642,7 +10642,7 @@
         <v>614</v>
       </c>
       <c r="H29" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -10665,7 +10665,7 @@
         <v>615</v>
       </c>
       <c r="H30" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>616</v>
       </c>
       <c r="H31" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -10711,7 +10711,7 @@
         <v>617</v>
       </c>
       <c r="H32" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -10734,7 +10734,7 @@
         <v>618</v>
       </c>
       <c r="H33" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -10757,7 +10757,7 @@
         <v>619</v>
       </c>
       <c r="H34" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -10783,7 +10783,7 @@
         <v>620</v>
       </c>
       <c r="H35" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -10809,7 +10809,7 @@
         <v>621</v>
       </c>
       <c r="H36" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -10832,7 +10832,7 @@
         <v>622</v>
       </c>
       <c r="H37" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -10855,7 +10855,7 @@
         <v>623</v>
       </c>
       <c r="H38" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -10881,7 +10881,7 @@
         <v>624</v>
       </c>
       <c r="H39" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -10904,7 +10904,7 @@
         <v>625</v>
       </c>
       <c r="H40" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -10930,7 +10930,7 @@
         <v>626</v>
       </c>
       <c r="H41" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -10953,7 +10953,7 @@
         <v>627</v>
       </c>
       <c r="H42" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -10976,7 +10976,7 @@
         <v>628</v>
       </c>
       <c r="H43" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -10999,7 +10999,7 @@
         <v>629</v>
       </c>
       <c r="H44" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -11025,7 +11025,7 @@
         <v>630</v>
       </c>
       <c r="H45" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -11051,7 +11051,7 @@
         <v>631</v>
       </c>
       <c r="H46" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -11074,7 +11074,7 @@
         <v>632</v>
       </c>
       <c r="H47" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -11100,7 +11100,7 @@
         <v>633</v>
       </c>
       <c r="H48" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -11126,7 +11126,7 @@
         <v>634</v>
       </c>
       <c r="H49" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -11146,7 +11146,7 @@
         <v>635</v>
       </c>
       <c r="H50" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -11166,7 +11166,7 @@
         <v>636</v>
       </c>
       <c r="H51" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -11192,7 +11192,7 @@
         <v>637</v>
       </c>
       <c r="H52" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -11215,7 +11215,7 @@
         <v>638</v>
       </c>
       <c r="H53" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -11238,7 +11238,7 @@
         <v>639</v>
       </c>
       <c r="H54" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -11264,7 +11264,7 @@
         <v>640</v>
       </c>
       <c r="H55" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -11287,7 +11287,7 @@
         <v>641</v>
       </c>
       <c r="H56" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -11307,7 +11307,7 @@
         <v>642</v>
       </c>
       <c r="H57" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
       <c r="I57" t="s">
         <v>857</v>
@@ -11333,7 +11333,7 @@
         <v>643</v>
       </c>
       <c r="H58" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -11359,7 +11359,7 @@
         <v>644</v>
       </c>
       <c r="H59" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -11382,7 +11382,7 @@
         <v>645</v>
       </c>
       <c r="H60" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -11408,7 +11408,7 @@
         <v>646</v>
       </c>
       <c r="H61" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -11428,7 +11428,7 @@
         <v>647</v>
       </c>
       <c r="H62" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -11451,7 +11451,7 @@
         <v>648</v>
       </c>
       <c r="H63" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -11474,7 +11474,7 @@
         <v>649</v>
       </c>
       <c r="H64" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -11497,7 +11497,7 @@
         <v>650</v>
       </c>
       <c r="H65" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -11523,7 +11523,7 @@
         <v>651</v>
       </c>
       <c r="H66" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -11546,7 +11546,7 @@
         <v>652</v>
       </c>
       <c r="H67" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -11569,7 +11569,7 @@
         <v>653</v>
       </c>
       <c r="H68" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -11595,7 +11595,7 @@
         <v>654</v>
       </c>
       <c r="H69" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -11615,7 +11615,7 @@
         <v>655</v>
       </c>
       <c r="H70" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
       <c r="I70" t="s">
         <v>858</v>
@@ -11641,7 +11641,7 @@
         <v>656</v>
       </c>
       <c r="H71" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -11664,7 +11664,7 @@
         <v>657</v>
       </c>
       <c r="H72" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -11687,7 +11687,7 @@
         <v>658</v>
       </c>
       <c r="H73" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -11713,7 +11713,7 @@
         <v>659</v>
       </c>
       <c r="H74" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -11733,7 +11733,7 @@
         <v>660</v>
       </c>
       <c r="H75" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -11756,7 +11756,7 @@
         <v>661</v>
       </c>
       <c r="H76" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -11779,7 +11779,7 @@
         <v>662</v>
       </c>
       <c r="H77" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -11802,7 +11802,7 @@
         <v>663</v>
       </c>
       <c r="H78" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -11828,7 +11828,7 @@
         <v>664</v>
       </c>
       <c r="H79" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -11851,7 +11851,7 @@
         <v>665</v>
       </c>
       <c r="H80" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -11874,7 +11874,7 @@
         <v>666</v>
       </c>
       <c r="H81" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -11900,7 +11900,7 @@
         <v>667</v>
       </c>
       <c r="H82" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -11923,7 +11923,7 @@
         <v>668</v>
       </c>
       <c r="H83" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -11946,7 +11946,7 @@
         <v>669</v>
       </c>
       <c r="H84" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -11972,7 +11972,7 @@
         <v>670</v>
       </c>
       <c r="H85" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -11998,7 +11998,7 @@
         <v>671</v>
       </c>
       <c r="H86" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -12024,7 +12024,7 @@
         <v>672</v>
       </c>
       <c r="H87" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -12050,7 +12050,7 @@
         <v>673</v>
       </c>
       <c r="H88" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -12073,7 +12073,7 @@
         <v>674</v>
       </c>
       <c r="H89" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -12096,7 +12096,7 @@
         <v>675</v>
       </c>
       <c r="H90" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -12122,7 +12122,7 @@
         <v>676</v>
       </c>
       <c r="H91" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -12142,7 +12142,7 @@
         <v>677</v>
       </c>
       <c r="H92" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -12162,7 +12162,7 @@
         <v>678</v>
       </c>
       <c r="H93" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
       <c r="I93" t="s">
         <v>859</v>
@@ -12191,7 +12191,7 @@
         <v>679</v>
       </c>
       <c r="H94" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -12214,7 +12214,7 @@
         <v>680</v>
       </c>
       <c r="H95" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -12237,7 +12237,7 @@
         <v>681</v>
       </c>
       <c r="H96" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -12260,7 +12260,7 @@
         <v>682</v>
       </c>
       <c r="H97" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -12283,7 +12283,7 @@
         <v>683</v>
       </c>
       <c r="H98" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -12306,7 +12306,7 @@
         <v>684</v>
       </c>
       <c r="H99" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -12332,7 +12332,7 @@
         <v>685</v>
       </c>
       <c r="H100" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -12355,7 +12355,7 @@
         <v>686</v>
       </c>
       <c r="H101" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -12375,7 +12375,7 @@
         <v>687</v>
       </c>
       <c r="H102" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -12398,7 +12398,7 @@
         <v>688</v>
       </c>
       <c r="H103" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -12421,7 +12421,7 @@
         <v>689</v>
       </c>
       <c r="H104" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -12444,7 +12444,7 @@
         <v>690</v>
       </c>
       <c r="H105" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -12467,7 +12467,7 @@
         <v>691</v>
       </c>
       <c r="H106" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -12490,7 +12490,7 @@
         <v>692</v>
       </c>
       <c r="H107" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -12516,7 +12516,7 @@
         <v>693</v>
       </c>
       <c r="H108" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -12539,7 +12539,7 @@
         <v>694</v>
       </c>
       <c r="H109" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -12559,7 +12559,7 @@
         <v>695</v>
       </c>
       <c r="H110" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
       <c r="I110" t="s">
         <v>860</v>
@@ -12585,7 +12585,7 @@
         <v>696</v>
       </c>
       <c r="H111" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -12608,7 +12608,7 @@
         <v>697</v>
       </c>
       <c r="H112" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -12631,7 +12631,7 @@
         <v>698</v>
       </c>
       <c r="H113" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -12654,7 +12654,7 @@
         <v>699</v>
       </c>
       <c r="H114" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -12680,7 +12680,7 @@
         <v>700</v>
       </c>
       <c r="H115" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -12703,7 +12703,7 @@
         <v>701</v>
       </c>
       <c r="H116" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -12726,7 +12726,7 @@
         <v>702</v>
       </c>
       <c r="H117" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -12749,7 +12749,7 @@
         <v>703</v>
       </c>
       <c r="H118" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -12772,7 +12772,7 @@
         <v>704</v>
       </c>
       <c r="H119" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -12798,7 +12798,7 @@
         <v>705</v>
       </c>
       <c r="H120" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -12821,7 +12821,7 @@
         <v>706</v>
       </c>
       <c r="H121" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -12847,7 +12847,7 @@
         <v>707</v>
       </c>
       <c r="H122" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -12870,7 +12870,7 @@
         <v>708</v>
       </c>
       <c r="H123" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -12893,7 +12893,7 @@
         <v>709</v>
       </c>
       <c r="H124" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -12916,7 +12916,7 @@
         <v>710</v>
       </c>
       <c r="H125" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -12942,7 +12942,7 @@
         <v>711</v>
       </c>
       <c r="H126" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -12968,7 +12968,7 @@
         <v>712</v>
       </c>
       <c r="H127" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -12991,7 +12991,7 @@
         <v>713</v>
       </c>
       <c r="H128" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -13014,7 +13014,7 @@
         <v>714</v>
       </c>
       <c r="H129" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -13037,7 +13037,7 @@
         <v>715</v>
       </c>
       <c r="H130" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -13063,7 +13063,7 @@
         <v>716</v>
       </c>
       <c r="H131" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -13089,7 +13089,7 @@
         <v>717</v>
       </c>
       <c r="H132" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -13112,7 +13112,7 @@
         <v>718</v>
       </c>
       <c r="H133" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -13138,7 +13138,7 @@
         <v>719</v>
       </c>
       <c r="H134" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -13161,7 +13161,7 @@
         <v>720</v>
       </c>
       <c r="H135" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -13187,7 +13187,7 @@
         <v>721</v>
       </c>
       <c r="H136" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -13213,7 +13213,7 @@
         <v>722</v>
       </c>
       <c r="H137" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -13239,7 +13239,7 @@
         <v>723</v>
       </c>
       <c r="H138" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>724</v>
       </c>
       <c r="H139" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>725</v>
       </c>
       <c r="H140" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>726</v>
       </c>
       <c r="H141" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -13337,7 +13337,7 @@
         <v>727</v>
       </c>
       <c r="H142" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -13363,7 +13363,7 @@
         <v>728</v>
       </c>
       <c r="H143" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -13389,7 +13389,7 @@
         <v>729</v>
       </c>
       <c r="H144" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -13412,7 +13412,7 @@
         <v>730</v>
       </c>
       <c r="H145" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -13435,7 +13435,7 @@
         <v>731</v>
       </c>
       <c r="H146" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -13458,7 +13458,7 @@
         <v>732</v>
       </c>
       <c r="H147" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -13484,7 +13484,7 @@
         <v>733</v>
       </c>
       <c r="H148" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -13507,7 +13507,7 @@
         <v>734</v>
       </c>
       <c r="H149" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -13527,7 +13527,7 @@
         <v>735</v>
       </c>
       <c r="H150" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
       <c r="I150" t="s">
         <v>861</v>
@@ -13553,7 +13553,7 @@
         <v>736</v>
       </c>
       <c r="H151" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -13576,7 +13576,7 @@
         <v>737</v>
       </c>
       <c r="H152" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -13599,7 +13599,7 @@
         <v>738</v>
       </c>
       <c r="H153" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -13622,7 +13622,7 @@
         <v>739</v>
       </c>
       <c r="H154" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -13648,7 +13648,7 @@
         <v>740</v>
       </c>
       <c r="H155" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -13671,7 +13671,7 @@
         <v>741</v>
       </c>
       <c r="H156" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -13694,7 +13694,7 @@
         <v>742</v>
       </c>
       <c r="H157" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -13717,7 +13717,7 @@
         <v>743</v>
       </c>
       <c r="H158" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -13740,7 +13740,7 @@
         <v>744</v>
       </c>
       <c r="H159" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -13766,7 +13766,7 @@
         <v>745</v>
       </c>
       <c r="H160" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -13789,7 +13789,7 @@
         <v>746</v>
       </c>
       <c r="H161" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -13815,7 +13815,7 @@
         <v>747</v>
       </c>
       <c r="H162" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -13838,7 +13838,7 @@
         <v>748</v>
       </c>
       <c r="H163" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -13861,7 +13861,7 @@
         <v>749</v>
       </c>
       <c r="H164" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -13884,7 +13884,7 @@
         <v>750</v>
       </c>
       <c r="H165" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -13907,7 +13907,7 @@
         <v>751</v>
       </c>
       <c r="H166" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -13933,7 +13933,7 @@
         <v>752</v>
       </c>
       <c r="H167" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -13956,7 +13956,7 @@
         <v>753</v>
       </c>
       <c r="H168" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -13979,7 +13979,7 @@
         <v>754</v>
       </c>
       <c r="H169" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -14002,7 +14002,7 @@
         <v>755</v>
       </c>
       <c r="H170" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -14025,7 +14025,7 @@
         <v>756</v>
       </c>
       <c r="H171" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -14048,7 +14048,7 @@
         <v>757</v>
       </c>
       <c r="H172" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -14074,7 +14074,7 @@
         <v>758</v>
       </c>
       <c r="H173" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -14097,7 +14097,7 @@
         <v>759</v>
       </c>
       <c r="H174" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -14123,7 +14123,7 @@
         <v>760</v>
       </c>
       <c r="H175" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>761</v>
       </c>
       <c r="H176" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -14169,7 +14169,7 @@
         <v>762</v>
       </c>
       <c r="H177" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -14192,7 +14192,7 @@
         <v>763</v>
       </c>
       <c r="H178" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -14218,7 +14218,7 @@
         <v>764</v>
       </c>
       <c r="H179" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -14244,7 +14244,7 @@
         <v>765</v>
       </c>
       <c r="H180" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -14267,7 +14267,7 @@
         <v>766</v>
       </c>
       <c r="H181" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -14293,7 +14293,7 @@
         <v>767</v>
       </c>
       <c r="H182" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -14319,7 +14319,7 @@
         <v>768</v>
       </c>
       <c r="H183" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -14339,7 +14339,7 @@
         <v>769</v>
       </c>
       <c r="H184" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -14359,7 +14359,7 @@
         <v>770</v>
       </c>
       <c r="H185" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -14385,7 +14385,7 @@
         <v>771</v>
       </c>
       <c r="H186" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -14408,7 +14408,7 @@
         <v>772</v>
       </c>
       <c r="H187" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -14431,7 +14431,7 @@
         <v>773</v>
       </c>
       <c r="H188" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -14457,7 +14457,7 @@
         <v>774</v>
       </c>
       <c r="H189" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -14480,7 +14480,7 @@
         <v>775</v>
       </c>
       <c r="H190" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -14503,7 +14503,7 @@
         <v>776</v>
       </c>
       <c r="H191" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -14529,7 +14529,7 @@
         <v>777</v>
       </c>
       <c r="H192" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -14552,7 +14552,7 @@
         <v>778</v>
       </c>
       <c r="H193" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -14578,7 +14578,7 @@
         <v>779</v>
       </c>
       <c r="H194" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -14601,7 +14601,7 @@
         <v>780</v>
       </c>
       <c r="H195" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -14624,7 +14624,7 @@
         <v>781</v>
       </c>
       <c r="H196" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -14647,7 +14647,7 @@
         <v>782</v>
       </c>
       <c r="H197" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -14673,7 +14673,7 @@
         <v>783</v>
       </c>
       <c r="H198" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -14699,7 +14699,7 @@
         <v>784</v>
       </c>
       <c r="H199" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -14722,7 +14722,7 @@
         <v>785</v>
       </c>
       <c r="H200" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -14748,7 +14748,7 @@
         <v>786</v>
       </c>
       <c r="H201" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -14774,7 +14774,7 @@
         <v>787</v>
       </c>
       <c r="H202" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -14794,7 +14794,7 @@
         <v>788</v>
       </c>
       <c r="H203" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -14814,7 +14814,7 @@
         <v>789</v>
       </c>
       <c r="H204" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -14840,7 +14840,7 @@
         <v>790</v>
       </c>
       <c r="H205" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -14863,7 +14863,7 @@
         <v>791</v>
       </c>
       <c r="H206" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -14886,7 +14886,7 @@
         <v>792</v>
       </c>
       <c r="H207" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -14912,7 +14912,7 @@
         <v>793</v>
       </c>
       <c r="H208" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -14935,7 +14935,7 @@
         <v>794</v>
       </c>
       <c r="H209" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -14961,7 +14961,7 @@
         <v>795</v>
       </c>
       <c r="H210" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -14984,7 +14984,7 @@
         <v>796</v>
       </c>
       <c r="H211" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -15007,7 +15007,7 @@
         <v>797</v>
       </c>
       <c r="H212" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>798</v>
       </c>
       <c r="H213" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>799</v>
       </c>
       <c r="H214" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>800</v>
       </c>
       <c r="H215" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -15105,7 +15105,7 @@
         <v>801</v>
       </c>
       <c r="H216" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -15131,7 +15131,7 @@
         <v>802</v>
       </c>
       <c r="H217" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -15157,7 +15157,7 @@
         <v>803</v>
       </c>
       <c r="H218" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -15177,7 +15177,7 @@
         <v>804</v>
       </c>
       <c r="H219" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -15197,7 +15197,7 @@
         <v>805</v>
       </c>
       <c r="H220" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -15223,7 +15223,7 @@
         <v>806</v>
       </c>
       <c r="H221" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -15246,7 +15246,7 @@
         <v>807</v>
       </c>
       <c r="H222" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -15269,7 +15269,7 @@
         <v>808</v>
       </c>
       <c r="H223" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -15295,7 +15295,7 @@
         <v>809</v>
       </c>
       <c r="H224" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -15318,7 +15318,7 @@
         <v>810</v>
       </c>
       <c r="H225" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -15344,7 +15344,7 @@
         <v>811</v>
       </c>
       <c r="H226" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -15367,7 +15367,7 @@
         <v>812</v>
       </c>
       <c r="H227" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -15390,7 +15390,7 @@
         <v>813</v>
       </c>
       <c r="H228" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -15413,7 +15413,7 @@
         <v>814</v>
       </c>
       <c r="H229" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -15439,7 +15439,7 @@
         <v>815</v>
       </c>
       <c r="H230" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -15465,7 +15465,7 @@
         <v>816</v>
       </c>
       <c r="H231" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -15488,7 +15488,7 @@
         <v>817</v>
       </c>
       <c r="H232" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -15514,7 +15514,7 @@
         <v>818</v>
       </c>
       <c r="H233" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -15540,7 +15540,7 @@
         <v>819</v>
       </c>
       <c r="H234" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -15560,7 +15560,7 @@
         <v>820</v>
       </c>
       <c r="H235" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -15580,7 +15580,7 @@
         <v>821</v>
       </c>
       <c r="H236" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -15606,7 +15606,7 @@
         <v>822</v>
       </c>
       <c r="H237" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -15629,7 +15629,7 @@
         <v>823</v>
       </c>
       <c r="H238" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -15652,7 +15652,7 @@
         <v>824</v>
       </c>
       <c r="H239" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -15678,7 +15678,7 @@
         <v>825</v>
       </c>
       <c r="H240" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -15701,7 +15701,7 @@
         <v>826</v>
       </c>
       <c r="H241" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -15727,7 +15727,7 @@
         <v>827</v>
       </c>
       <c r="H242" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -15750,7 +15750,7 @@
         <v>828</v>
       </c>
       <c r="H243" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -15773,7 +15773,7 @@
         <v>829</v>
       </c>
       <c r="H244" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -15796,7 +15796,7 @@
         <v>830</v>
       </c>
       <c r="H245" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -15822,7 +15822,7 @@
         <v>831</v>
       </c>
       <c r="H246" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -15848,7 +15848,7 @@
         <v>832</v>
       </c>
       <c r="H247" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -15871,7 +15871,7 @@
         <v>833</v>
       </c>
       <c r="H248" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -15897,7 +15897,7 @@
         <v>834</v>
       </c>
       <c r="H249" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -15923,7 +15923,7 @@
         <v>835</v>
       </c>
       <c r="H250" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -15943,7 +15943,7 @@
         <v>836</v>
       </c>
       <c r="H251" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -15963,7 +15963,7 @@
         <v>837</v>
       </c>
       <c r="H252" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -15989,7 +15989,7 @@
         <v>838</v>
       </c>
       <c r="H253" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -16012,7 +16012,7 @@
         <v>839</v>
       </c>
       <c r="H254" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -16035,7 +16035,7 @@
         <v>840</v>
       </c>
       <c r="H255" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -16061,7 +16061,7 @@
         <v>841</v>
       </c>
       <c r="H256" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -16084,7 +16084,7 @@
         <v>842</v>
       </c>
       <c r="H257" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -16110,7 +16110,7 @@
         <v>843</v>
       </c>
       <c r="H258" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -16133,7 +16133,7 @@
         <v>844</v>
       </c>
       <c r="H259" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -16156,7 +16156,7 @@
         <v>845</v>
       </c>
       <c r="H260" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -16179,7 +16179,7 @@
         <v>846</v>
       </c>
       <c r="H261" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -16205,7 +16205,7 @@
         <v>847</v>
       </c>
       <c r="H262" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -16231,7 +16231,7 @@
         <v>848</v>
       </c>
       <c r="H263" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -16254,7 +16254,7 @@
         <v>849</v>
       </c>
       <c r="H264" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -16280,7 +16280,7 @@
         <v>850</v>
       </c>
       <c r="H265" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -16306,7 +16306,7 @@
         <v>851</v>
       </c>
       <c r="H266" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -16326,7 +16326,7 @@
         <v>852</v>
       </c>
       <c r="H267" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -16346,7 +16346,7 @@
         <v>853</v>
       </c>
       <c r="H268" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -16372,7 +16372,7 @@
         <v>854</v>
       </c>
       <c r="H269" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -16395,7 +16395,7 @@
         <v>855</v>
       </c>
       <c r="H270" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -16418,7 +16418,7 @@
         <v>856</v>
       </c>
       <c r="H271" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
   </sheetData>
@@ -16471,7 +16471,7 @@
         <v>912</v>
       </c>
       <c r="F2" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -16488,7 +16488,7 @@
         <v>913</v>
       </c>
       <c r="F3" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -16509,7 +16509,7 @@
         <v>914</v>
       </c>
       <c r="F4" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -16529,7 +16529,7 @@
         <v>915</v>
       </c>
       <c r="F5" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -16549,7 +16549,7 @@
         <v>916</v>
       </c>
       <c r="F6" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -16569,7 +16569,7 @@
         <v>917</v>
       </c>
       <c r="F7" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -16589,7 +16589,7 @@
         <v>918</v>
       </c>
       <c r="F8" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -16609,7 +16609,7 @@
         <v>919</v>
       </c>
       <c r="F9" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -16629,7 +16629,7 @@
         <v>920</v>
       </c>
       <c r="F10" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -16649,7 +16649,7 @@
         <v>921</v>
       </c>
       <c r="F11" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -16669,7 +16669,7 @@
         <v>922</v>
       </c>
       <c r="F12" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -16689,7 +16689,7 @@
         <v>923</v>
       </c>
       <c r="F13" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -16709,7 +16709,7 @@
         <v>924</v>
       </c>
       <c r="F14" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -16729,7 +16729,7 @@
         <v>925</v>
       </c>
       <c r="F15" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -16749,7 +16749,7 @@
         <v>926</v>
       </c>
       <c r="F16" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -16769,7 +16769,7 @@
         <v>927</v>
       </c>
       <c r="F17" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -16789,7 +16789,7 @@
         <v>928</v>
       </c>
       <c r="F18" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -16809,7 +16809,7 @@
         <v>929</v>
       </c>
       <c r="F19" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -16829,7 +16829,7 @@
         <v>930</v>
       </c>
       <c r="F20" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -16849,7 +16849,7 @@
         <v>931</v>
       </c>
       <c r="F21" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -16869,7 +16869,7 @@
         <v>932</v>
       </c>
       <c r="F22" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -16889,7 +16889,7 @@
         <v>933</v>
       </c>
       <c r="F23" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -16909,7 +16909,7 @@
         <v>934</v>
       </c>
       <c r="F24" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -16929,7 +16929,7 @@
         <v>935</v>
       </c>
       <c r="F25" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -16949,7 +16949,7 @@
         <v>936</v>
       </c>
       <c r="F26" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -16969,7 +16969,7 @@
         <v>937</v>
       </c>
       <c r="F27" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -16989,7 +16989,7 @@
         <v>938</v>
       </c>
       <c r="F28" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -17009,7 +17009,7 @@
         <v>939</v>
       </c>
       <c r="F29" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -17029,7 +17029,7 @@
         <v>940</v>
       </c>
       <c r="F30" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -17049,7 +17049,7 @@
         <v>941</v>
       </c>
       <c r="F31" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -17069,7 +17069,7 @@
         <v>942</v>
       </c>
       <c r="F32" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -17089,7 +17089,7 @@
         <v>943</v>
       </c>
       <c r="F33" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -17109,7 +17109,7 @@
         <v>944</v>
       </c>
       <c r="F34" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -17129,7 +17129,7 @@
         <v>945</v>
       </c>
       <c r="F35" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -17149,7 +17149,7 @@
         <v>946</v>
       </c>
       <c r="F36" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -17169,7 +17169,7 @@
         <v>947</v>
       </c>
       <c r="F37" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -17189,7 +17189,7 @@
         <v>948</v>
       </c>
       <c r="F38" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -17209,7 +17209,7 @@
         <v>949</v>
       </c>
       <c r="F39" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -17229,7 +17229,7 @@
         <v>950</v>
       </c>
       <c r="F40" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -17249,7 +17249,7 @@
         <v>951</v>
       </c>
       <c r="F41" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -17269,7 +17269,7 @@
         <v>952</v>
       </c>
       <c r="F42" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -17289,7 +17289,7 @@
         <v>953</v>
       </c>
       <c r="F43" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -17309,7 +17309,7 @@
         <v>954</v>
       </c>
       <c r="F44" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -17329,7 +17329,7 @@
         <v>955</v>
       </c>
       <c r="F45" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -17349,7 +17349,7 @@
         <v>956</v>
       </c>
       <c r="F46" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -17369,7 +17369,7 @@
         <v>957</v>
       </c>
       <c r="F47" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -17389,7 +17389,7 @@
         <v>958</v>
       </c>
       <c r="F48" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -17409,7 +17409,7 @@
         <v>959</v>
       </c>
       <c r="F49" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -17429,7 +17429,7 @@
         <v>960</v>
       </c>
       <c r="F50" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -17449,7 +17449,7 @@
         <v>961</v>
       </c>
       <c r="F51" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -17469,7 +17469,7 @@
         <v>962</v>
       </c>
       <c r="F52" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -17489,7 +17489,7 @@
         <v>963</v>
       </c>
       <c r="F53" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -17509,7 +17509,7 @@
         <v>964</v>
       </c>
       <c r="F54" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -17529,7 +17529,7 @@
         <v>965</v>
       </c>
       <c r="F55" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -17549,7 +17549,7 @@
         <v>966</v>
       </c>
       <c r="F56" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -17569,7 +17569,7 @@
         <v>967</v>
       </c>
       <c r="F57" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -17589,7 +17589,7 @@
         <v>968</v>
       </c>
       <c r="F58" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -17609,7 +17609,7 @@
         <v>969</v>
       </c>
       <c r="F59" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -17629,7 +17629,7 @@
         <v>970</v>
       </c>
       <c r="F60" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -17649,7 +17649,7 @@
         <v>971</v>
       </c>
       <c r="F61" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -17669,7 +17669,7 @@
         <v>972</v>
       </c>
       <c r="F62" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -17689,7 +17689,7 @@
         <v>973</v>
       </c>
       <c r="F63" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -17709,7 +17709,7 @@
         <v>974</v>
       </c>
       <c r="F64" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -17729,7 +17729,7 @@
         <v>975</v>
       </c>
       <c r="F65" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -17749,7 +17749,7 @@
         <v>976</v>
       </c>
       <c r="F66" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -17769,7 +17769,7 @@
         <v>977</v>
       </c>
       <c r="F67" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -17789,7 +17789,7 @@
         <v>978</v>
       </c>
       <c r="F68" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -17809,7 +17809,7 @@
         <v>979</v>
       </c>
       <c r="F69" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -17829,7 +17829,7 @@
         <v>980</v>
       </c>
       <c r="F70" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -17849,7 +17849,7 @@
         <v>981</v>
       </c>
       <c r="F71" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -17869,7 +17869,7 @@
         <v>982</v>
       </c>
       <c r="F72" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -17889,7 +17889,7 @@
         <v>983</v>
       </c>
       <c r="F73" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -17909,7 +17909,7 @@
         <v>984</v>
       </c>
       <c r="F74" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -17929,7 +17929,7 @@
         <v>985</v>
       </c>
       <c r="F75" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -17949,7 +17949,7 @@
         <v>986</v>
       </c>
       <c r="F76" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -17969,7 +17969,7 @@
         <v>987</v>
       </c>
       <c r="F77" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -17989,7 +17989,7 @@
         <v>988</v>
       </c>
       <c r="F78" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -18009,7 +18009,7 @@
         <v>989</v>
       </c>
       <c r="F79" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -18029,7 +18029,7 @@
         <v>990</v>
       </c>
       <c r="F80" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -18049,7 +18049,7 @@
         <v>991</v>
       </c>
       <c r="F81" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -18069,7 +18069,7 @@
         <v>992</v>
       </c>
       <c r="F82" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -18089,7 +18089,7 @@
         <v>993</v>
       </c>
       <c r="F83" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -18109,7 +18109,7 @@
         <v>994</v>
       </c>
       <c r="F84" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -18129,7 +18129,7 @@
         <v>995</v>
       </c>
       <c r="F85" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -18149,7 +18149,7 @@
         <v>996</v>
       </c>
       <c r="F86" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
   </sheetData>
@@ -18196,7 +18196,7 @@
         <v>1002</v>
       </c>
       <c r="E2" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -18213,7 +18213,7 @@
         <v>1003</v>
       </c>
       <c r="E3" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -18230,7 +18230,7 @@
         <v>1004</v>
       </c>
       <c r="E4" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -18247,7 +18247,7 @@
         <v>1005</v>
       </c>
       <c r="E5" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -18264,7 +18264,7 @@
         <v>1006</v>
       </c>
       <c r="E6" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -18281,7 +18281,7 @@
         <v>1007</v>
       </c>
       <c r="E7" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -18298,7 +18298,7 @@
         <v>1008</v>
       </c>
       <c r="E8" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -18315,7 +18315,7 @@
         <v>1003</v>
       </c>
       <c r="E9" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -18332,7 +18332,7 @@
         <v>1009</v>
       </c>
       <c r="E10" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -18349,7 +18349,7 @@
         <v>1010</v>
       </c>
       <c r="E11" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -18366,7 +18366,7 @@
         <v>1011</v>
       </c>
       <c r="E12" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -18383,7 +18383,7 @@
         <v>1012</v>
       </c>
       <c r="E13" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
   </sheetData>
@@ -18466,7 +18466,7 @@
         <v>1095</v>
       </c>
       <c r="K2" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -18501,7 +18501,7 @@
         <v>1096</v>
       </c>
       <c r="K3" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -18536,7 +18536,7 @@
         <v>1097</v>
       </c>
       <c r="K4" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -18571,7 +18571,7 @@
         <v>1098</v>
       </c>
       <c r="K5" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -18606,7 +18606,7 @@
         <v>1099</v>
       </c>
       <c r="K6" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -18641,7 +18641,7 @@
         <v>1100</v>
       </c>
       <c r="K7" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -18676,7 +18676,7 @@
         <v>1101</v>
       </c>
       <c r="K8" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -18711,7 +18711,7 @@
         <v>1102</v>
       </c>
       <c r="K9" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -18746,7 +18746,7 @@
         <v>1103</v>
       </c>
       <c r="K10" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -18781,7 +18781,7 @@
         <v>1104</v>
       </c>
       <c r="K11" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -18816,7 +18816,7 @@
         <v>1105</v>
       </c>
       <c r="K12" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -18851,7 +18851,7 @@
         <v>1106</v>
       </c>
       <c r="K13" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -18886,7 +18886,7 @@
         <v>1107</v>
       </c>
       <c r="K14" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -18921,7 +18921,7 @@
         <v>1108</v>
       </c>
       <c r="K15" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -18956,7 +18956,7 @@
         <v>1109</v>
       </c>
       <c r="K16" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -18991,7 +18991,7 @@
         <v>1110</v>
       </c>
       <c r="K17" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -19026,7 +19026,7 @@
         <v>1111</v>
       </c>
       <c r="K18" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -19061,7 +19061,7 @@
         <v>1112</v>
       </c>
       <c r="K19" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -19096,7 +19096,7 @@
         <v>1113</v>
       </c>
       <c r="K20" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -19131,7 +19131,7 @@
         <v>1114</v>
       </c>
       <c r="K21" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -19166,7 +19166,7 @@
         <v>1115</v>
       </c>
       <c r="K22" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -19201,7 +19201,7 @@
         <v>1116</v>
       </c>
       <c r="K23" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -19236,7 +19236,7 @@
         <v>1117</v>
       </c>
       <c r="K24" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -19271,7 +19271,7 @@
         <v>1118</v>
       </c>
       <c r="K25" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -19306,7 +19306,7 @@
         <v>1119</v>
       </c>
       <c r="K26" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -19341,7 +19341,7 @@
         <v>1120</v>
       </c>
       <c r="K27" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -19376,7 +19376,7 @@
         <v>1121</v>
       </c>
       <c r="K28" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -19411,7 +19411,7 @@
         <v>1122</v>
       </c>
       <c r="K29" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -19446,7 +19446,7 @@
         <v>1123</v>
       </c>
       <c r="K30" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -19481,7 +19481,7 @@
         <v>1124</v>
       </c>
       <c r="K31" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -19516,7 +19516,7 @@
         <v>1125</v>
       </c>
       <c r="K32" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -19551,7 +19551,7 @@
         <v>1126</v>
       </c>
       <c r="K33" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -19586,7 +19586,7 @@
         <v>1127</v>
       </c>
       <c r="K34" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -19621,7 +19621,7 @@
         <v>1128</v>
       </c>
       <c r="K35" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -19656,7 +19656,7 @@
         <v>1129</v>
       </c>
       <c r="K36" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -19691,7 +19691,7 @@
         <v>1130</v>
       </c>
       <c r="K37" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -19726,7 +19726,7 @@
         <v>1131</v>
       </c>
       <c r="K38" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -19761,7 +19761,7 @@
         <v>1132</v>
       </c>
       <c r="K39" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -19796,7 +19796,7 @@
         <v>1133</v>
       </c>
       <c r="K40" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -19831,7 +19831,7 @@
         <v>1134</v>
       </c>
       <c r="K41" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -19866,7 +19866,7 @@
         <v>1135</v>
       </c>
       <c r="K42" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -19901,7 +19901,7 @@
         <v>1136</v>
       </c>
       <c r="K43" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -19936,7 +19936,7 @@
         <v>1137</v>
       </c>
       <c r="K44" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -19971,7 +19971,7 @@
         <v>1138</v>
       </c>
       <c r="K45" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -20006,7 +20006,7 @@
         <v>1139</v>
       </c>
       <c r="K46" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -20041,7 +20041,7 @@
         <v>1140</v>
       </c>
       <c r="K47" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -20076,7 +20076,7 @@
         <v>1141</v>
       </c>
       <c r="K48" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -20111,7 +20111,7 @@
         <v>1142</v>
       </c>
       <c r="K49" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -20146,7 +20146,7 @@
         <v>1143</v>
       </c>
       <c r="K50" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -20181,7 +20181,7 @@
         <v>1144</v>
       </c>
       <c r="K51" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -20216,7 +20216,7 @@
         <v>1145</v>
       </c>
       <c r="K52" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -20251,7 +20251,7 @@
         <v>1146</v>
       </c>
       <c r="K53" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -20286,7 +20286,7 @@
         <v>1147</v>
       </c>
       <c r="K54" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -20321,7 +20321,7 @@
         <v>1148</v>
       </c>
       <c r="K55" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -20356,7 +20356,7 @@
         <v>1149</v>
       </c>
       <c r="K56" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -20391,7 +20391,7 @@
         <v>1150</v>
       </c>
       <c r="K57" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -20426,7 +20426,7 @@
         <v>1151</v>
       </c>
       <c r="K58" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -20461,7 +20461,7 @@
         <v>1152</v>
       </c>
       <c r="K59" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -20496,7 +20496,7 @@
         <v>1153</v>
       </c>
       <c r="K60" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -20531,7 +20531,7 @@
         <v>1154</v>
       </c>
       <c r="K61" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -20566,7 +20566,7 @@
         <v>1155</v>
       </c>
       <c r="K62" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -20601,7 +20601,7 @@
         <v>1156</v>
       </c>
       <c r="K63" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -20636,7 +20636,7 @@
         <v>1157</v>
       </c>
       <c r="K64" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -20671,7 +20671,7 @@
         <v>1158</v>
       </c>
       <c r="K65" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -20706,7 +20706,7 @@
         <v>1159</v>
       </c>
       <c r="K66" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -20741,7 +20741,7 @@
         <v>1160</v>
       </c>
       <c r="K67" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -20776,7 +20776,7 @@
         <v>1161</v>
       </c>
       <c r="K68" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -20811,7 +20811,7 @@
         <v>1162</v>
       </c>
       <c r="K69" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -20846,7 +20846,7 @@
         <v>1163</v>
       </c>
       <c r="K70" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -20881,7 +20881,7 @@
         <v>1164</v>
       </c>
       <c r="K71" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
   </sheetData>
@@ -20970,7 +20970,7 @@
         <v>1172</v>
       </c>
       <c r="L2" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -21008,7 +21008,7 @@
         <v>1173</v>
       </c>
       <c r="L3" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -21046,7 +21046,7 @@
         <v>1174</v>
       </c>
       <c r="L4" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -21084,7 +21084,7 @@
         <v>1175</v>
       </c>
       <c r="L5" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -21122,7 +21122,7 @@
         <v>1176</v>
       </c>
       <c r="L6" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -21160,7 +21160,7 @@
         <v>1177</v>
       </c>
       <c r="L7" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -21198,7 +21198,7 @@
         <v>1178</v>
       </c>
       <c r="L8" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -21236,7 +21236,7 @@
         <v>1179</v>
       </c>
       <c r="L9" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -21274,7 +21274,7 @@
         <v>1180</v>
       </c>
       <c r="L10" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -21312,7 +21312,7 @@
         <v>1181</v>
       </c>
       <c r="L11" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -21350,7 +21350,7 @@
         <v>1182</v>
       </c>
       <c r="L12" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -21388,7 +21388,7 @@
         <v>1183</v>
       </c>
       <c r="L13" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -21426,7 +21426,7 @@
         <v>1184</v>
       </c>
       <c r="L14" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -21464,7 +21464,7 @@
         <v>1185</v>
       </c>
       <c r="L15" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -21502,7 +21502,7 @@
         <v>1186</v>
       </c>
       <c r="L16" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -21540,7 +21540,7 @@
         <v>1187</v>
       </c>
       <c r="L17" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -21578,7 +21578,7 @@
         <v>1188</v>
       </c>
       <c r="L18" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -21616,7 +21616,7 @@
         <v>1189</v>
       </c>
       <c r="L19" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -21654,7 +21654,7 @@
         <v>1190</v>
       </c>
       <c r="L20" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -21692,7 +21692,7 @@
         <v>1191</v>
       </c>
       <c r="L21" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -21730,7 +21730,7 @@
         <v>1192</v>
       </c>
       <c r="L22" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -21768,7 +21768,7 @@
         <v>1193</v>
       </c>
       <c r="L23" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -21806,7 +21806,7 @@
         <v>1194</v>
       </c>
       <c r="L24" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -21844,7 +21844,7 @@
         <v>1195</v>
       </c>
       <c r="L25" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -21882,7 +21882,7 @@
         <v>1196</v>
       </c>
       <c r="L26" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -21920,7 +21920,7 @@
         <v>1197</v>
       </c>
       <c r="L27" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -21958,7 +21958,7 @@
         <v>1198</v>
       </c>
       <c r="L28" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -21996,7 +21996,7 @@
         <v>1199</v>
       </c>
       <c r="L29" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -22034,7 +22034,7 @@
         <v>1200</v>
       </c>
       <c r="L30" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -22072,7 +22072,7 @@
         <v>1201</v>
       </c>
       <c r="L31" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -22110,7 +22110,7 @@
         <v>1202</v>
       </c>
       <c r="L32" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -22148,7 +22148,7 @@
         <v>1203</v>
       </c>
       <c r="L33" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -22186,7 +22186,7 @@
         <v>1204</v>
       </c>
       <c r="L34" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -22224,7 +22224,7 @@
         <v>1205</v>
       </c>
       <c r="L35" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -22262,7 +22262,7 @@
         <v>1206</v>
       </c>
       <c r="L36" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -22300,7 +22300,7 @@
         <v>1207</v>
       </c>
       <c r="L37" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -22338,7 +22338,7 @@
         <v>1208</v>
       </c>
       <c r="L38" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -22376,7 +22376,7 @@
         <v>1209</v>
       </c>
       <c r="L39" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -22414,7 +22414,7 @@
         <v>1210</v>
       </c>
       <c r="L40" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -22452,7 +22452,7 @@
         <v>1211</v>
       </c>
       <c r="L41" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -22490,7 +22490,7 @@
         <v>1212</v>
       </c>
       <c r="L42" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -22528,7 +22528,7 @@
         <v>1213</v>
       </c>
       <c r="L43" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -22566,7 +22566,7 @@
         <v>1214</v>
       </c>
       <c r="L44" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -22604,7 +22604,7 @@
         <v>1215</v>
       </c>
       <c r="L45" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -22642,7 +22642,7 @@
         <v>1216</v>
       </c>
       <c r="L46" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -22680,7 +22680,7 @@
         <v>1217</v>
       </c>
       <c r="L47" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -22718,7 +22718,7 @@
         <v>1218</v>
       </c>
       <c r="L48" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -22756,7 +22756,7 @@
         <v>1219</v>
       </c>
       <c r="L49" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -22794,7 +22794,7 @@
         <v>1220</v>
       </c>
       <c r="L50" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -22832,7 +22832,7 @@
         <v>1221</v>
       </c>
       <c r="L51" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -22870,7 +22870,7 @@
         <v>1222</v>
       </c>
       <c r="L52" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -22908,7 +22908,7 @@
         <v>1223</v>
       </c>
       <c r="L53" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -22946,7 +22946,7 @@
         <v>1224</v>
       </c>
       <c r="L54" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -22984,7 +22984,7 @@
         <v>1225</v>
       </c>
       <c r="L55" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -23022,7 +23022,7 @@
         <v>1226</v>
       </c>
       <c r="L56" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -23060,7 +23060,7 @@
         <v>1227</v>
       </c>
       <c r="L57" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -23098,7 +23098,7 @@
         <v>1228</v>
       </c>
       <c r="L58" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -23136,7 +23136,7 @@
         <v>1229</v>
       </c>
       <c r="L59" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -23174,7 +23174,7 @@
         <v>1230</v>
       </c>
       <c r="L60" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -23212,7 +23212,7 @@
         <v>1231</v>
       </c>
       <c r="L61" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -23250,7 +23250,7 @@
         <v>1232</v>
       </c>
       <c r="L62" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -23288,7 +23288,7 @@
         <v>1233</v>
       </c>
       <c r="L63" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -23326,7 +23326,7 @@
         <v>1234</v>
       </c>
       <c r="L64" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -23364,7 +23364,7 @@
         <v>1235</v>
       </c>
       <c r="L65" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -23402,7 +23402,7 @@
         <v>1236</v>
       </c>
       <c r="L66" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -23440,7 +23440,7 @@
         <v>1237</v>
       </c>
       <c r="L67" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -23478,7 +23478,7 @@
         <v>1238</v>
       </c>
       <c r="L68" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -23516,7 +23516,7 @@
         <v>1239</v>
       </c>
       <c r="L69" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -23554,7 +23554,7 @@
         <v>1240</v>
       </c>
       <c r="L70" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
   </sheetData>
@@ -23625,7 +23625,7 @@
         <v>1350</v>
       </c>
       <c r="I2" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -23654,7 +23654,7 @@
         <v>1351</v>
       </c>
       <c r="I3" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -23683,7 +23683,7 @@
         <v>1352</v>
       </c>
       <c r="I4" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -23706,7 +23706,7 @@
         <v>1268</v>
       </c>
       <c r="I5" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -23729,7 +23729,7 @@
         <v>1269</v>
       </c>
       <c r="I6" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -23752,7 +23752,7 @@
         <v>1270</v>
       </c>
       <c r="I7" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -23775,7 +23775,7 @@
         <v>1271</v>
       </c>
       <c r="I8" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -23798,7 +23798,7 @@
         <v>1272</v>
       </c>
       <c r="I9" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -23821,7 +23821,7 @@
         <v>1273</v>
       </c>
       <c r="I10" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -23844,7 +23844,7 @@
         <v>1274</v>
       </c>
       <c r="I11" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -23867,7 +23867,7 @@
         <v>1275</v>
       </c>
       <c r="I12" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -23890,7 +23890,7 @@
         <v>1276</v>
       </c>
       <c r="I13" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -23913,7 +23913,7 @@
         <v>1277</v>
       </c>
       <c r="I14" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -23936,7 +23936,7 @@
         <v>1278</v>
       </c>
       <c r="I15" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -23959,7 +23959,7 @@
         <v>1279</v>
       </c>
       <c r="I16" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -23982,7 +23982,7 @@
         <v>1280</v>
       </c>
       <c r="I17" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -24005,7 +24005,7 @@
         <v>1281</v>
       </c>
       <c r="I18" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -24028,7 +24028,7 @@
         <v>1282</v>
       </c>
       <c r="I19" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -24051,7 +24051,7 @@
         <v>1283</v>
       </c>
       <c r="I20" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -24074,7 +24074,7 @@
         <v>1284</v>
       </c>
       <c r="I21" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -24097,7 +24097,7 @@
         <v>1285</v>
       </c>
       <c r="I22" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -24120,7 +24120,7 @@
         <v>1286</v>
       </c>
       <c r="I23" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -24143,7 +24143,7 @@
         <v>1287</v>
       </c>
       <c r="I24" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -24166,7 +24166,7 @@
         <v>1288</v>
       </c>
       <c r="I25" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -24189,7 +24189,7 @@
         <v>1289</v>
       </c>
       <c r="I26" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -24212,7 +24212,7 @@
         <v>1290</v>
       </c>
       <c r="I27" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -24235,7 +24235,7 @@
         <v>1291</v>
       </c>
       <c r="I28" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -24258,7 +24258,7 @@
         <v>1292</v>
       </c>
       <c r="I29" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -24281,7 +24281,7 @@
         <v>1293</v>
       </c>
       <c r="I30" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -24304,7 +24304,7 @@
         <v>1294</v>
       </c>
       <c r="I31" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -24327,7 +24327,7 @@
         <v>1295</v>
       </c>
       <c r="I32" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -24350,7 +24350,7 @@
         <v>1296</v>
       </c>
       <c r="I33" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -24373,7 +24373,7 @@
         <v>1297</v>
       </c>
       <c r="I34" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -24396,7 +24396,7 @@
         <v>1298</v>
       </c>
       <c r="I35" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -24419,7 +24419,7 @@
         <v>1299</v>
       </c>
       <c r="I36" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -24442,7 +24442,7 @@
         <v>1300</v>
       </c>
       <c r="I37" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -24465,7 +24465,7 @@
         <v>1301</v>
       </c>
       <c r="I38" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -24488,7 +24488,7 @@
         <v>1302</v>
       </c>
       <c r="I39" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -24511,7 +24511,7 @@
         <v>1303</v>
       </c>
       <c r="I40" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -24534,7 +24534,7 @@
         <v>1304</v>
       </c>
       <c r="I41" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -24557,7 +24557,7 @@
         <v>1305</v>
       </c>
       <c r="I42" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -24580,7 +24580,7 @@
         <v>1306</v>
       </c>
       <c r="I43" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -24603,7 +24603,7 @@
         <v>1307</v>
       </c>
       <c r="I44" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -24626,7 +24626,7 @@
         <v>1308</v>
       </c>
       <c r="I45" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -24649,7 +24649,7 @@
         <v>1309</v>
       </c>
       <c r="I46" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -24672,7 +24672,7 @@
         <v>1310</v>
       </c>
       <c r="I47" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -24695,7 +24695,7 @@
         <v>1311</v>
       </c>
       <c r="I48" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -24718,7 +24718,7 @@
         <v>1312</v>
       </c>
       <c r="I49" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -24741,7 +24741,7 @@
         <v>1313</v>
       </c>
       <c r="I50" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -24764,7 +24764,7 @@
         <v>1314</v>
       </c>
       <c r="I51" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -24787,7 +24787,7 @@
         <v>1315</v>
       </c>
       <c r="I52" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -24810,7 +24810,7 @@
         <v>1316</v>
       </c>
       <c r="I53" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -24833,7 +24833,7 @@
         <v>1317</v>
       </c>
       <c r="I54" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -24856,7 +24856,7 @@
         <v>1318</v>
       </c>
       <c r="I55" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -24879,7 +24879,7 @@
         <v>1319</v>
       </c>
       <c r="I56" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -24902,7 +24902,7 @@
         <v>1320</v>
       </c>
       <c r="I57" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -24925,7 +24925,7 @@
         <v>1321</v>
       </c>
       <c r="I58" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -24948,7 +24948,7 @@
         <v>1322</v>
       </c>
       <c r="I59" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -24971,7 +24971,7 @@
         <v>1323</v>
       </c>
       <c r="I60" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -24994,7 +24994,7 @@
         <v>1324</v>
       </c>
       <c r="I61" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -25017,7 +25017,7 @@
         <v>1325</v>
       </c>
       <c r="I62" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -25040,7 +25040,7 @@
         <v>1326</v>
       </c>
       <c r="I63" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -25063,7 +25063,7 @@
         <v>1327</v>
       </c>
       <c r="I64" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -25086,7 +25086,7 @@
         <v>1328</v>
       </c>
       <c r="I65" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -25109,7 +25109,7 @@
         <v>1329</v>
       </c>
       <c r="I66" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -25132,7 +25132,7 @@
         <v>1330</v>
       </c>
       <c r="I67" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -25155,7 +25155,7 @@
         <v>1331</v>
       </c>
       <c r="I68" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -25178,7 +25178,7 @@
         <v>1332</v>
       </c>
       <c r="I69" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -25201,7 +25201,7 @@
         <v>1333</v>
       </c>
       <c r="I70" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -25224,7 +25224,7 @@
         <v>1334</v>
       </c>
       <c r="I71" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -25247,7 +25247,7 @@
         <v>1335</v>
       </c>
       <c r="I72" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -25270,7 +25270,7 @@
         <v>1336</v>
       </c>
       <c r="I73" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -25293,7 +25293,7 @@
         <v>1337</v>
       </c>
       <c r="I74" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -25316,7 +25316,7 @@
         <v>1338</v>
       </c>
       <c r="I75" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -25339,7 +25339,7 @@
         <v>1339</v>
       </c>
       <c r="I76" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -25362,7 +25362,7 @@
         <v>1340</v>
       </c>
       <c r="I77" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -25388,7 +25388,7 @@
         <v>1353</v>
       </c>
       <c r="I78" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -25408,7 +25408,7 @@
         <v>1256</v>
       </c>
       <c r="I79" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -25431,7 +25431,7 @@
         <v>1257</v>
       </c>
       <c r="I80" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -25460,7 +25460,7 @@
         <v>1354</v>
       </c>
       <c r="I81" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -25486,7 +25486,7 @@
         <v>168</v>
       </c>
       <c r="I82" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -25512,7 +25512,7 @@
         <v>874</v>
       </c>
       <c r="I83" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -25538,7 +25538,7 @@
         <v>517</v>
       </c>
       <c r="I84" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -25564,7 +25564,7 @@
         <v>168</v>
       </c>
       <c r="I85" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -25587,7 +25587,7 @@
         <v>1257</v>
       </c>
       <c r="I86" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -25613,7 +25613,7 @@
         <v>168</v>
       </c>
       <c r="I87" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -25636,7 +25636,7 @@
         <v>1257</v>
       </c>
       <c r="I88" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -25662,7 +25662,7 @@
         <v>1094</v>
       </c>
       <c r="I89" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -25688,7 +25688,7 @@
         <v>517</v>
       </c>
       <c r="I90" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -25717,7 +25717,7 @@
         <v>1355</v>
       </c>
       <c r="I91" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -25740,7 +25740,7 @@
         <v>1257</v>
       </c>
       <c r="I92" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -25760,7 +25760,7 @@
         <v>1258</v>
       </c>
       <c r="I93" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -25783,7 +25783,7 @@
         <v>238</v>
       </c>
       <c r="I94" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -25806,7 +25806,7 @@
         <v>168</v>
       </c>
       <c r="I95" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -25829,7 +25829,7 @@
         <v>873</v>
       </c>
       <c r="I96" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -25852,7 +25852,7 @@
         <v>517</v>
       </c>
       <c r="I97" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -25875,7 +25875,7 @@
         <v>168</v>
       </c>
       <c r="I98" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -25895,7 +25895,7 @@
         <v>1258</v>
       </c>
       <c r="I99" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -25918,7 +25918,7 @@
         <v>168</v>
       </c>
       <c r="I100" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -25938,7 +25938,7 @@
         <v>1258</v>
       </c>
       <c r="I101" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -25961,7 +25961,7 @@
         <v>1092</v>
       </c>
       <c r="I102" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -25984,7 +25984,7 @@
         <v>517</v>
       </c>
       <c r="I103" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -26007,7 +26007,7 @@
         <v>1343</v>
       </c>
       <c r="I104" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -26027,7 +26027,7 @@
         <v>1259</v>
       </c>
       <c r="I105" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -26050,7 +26050,7 @@
         <v>238</v>
       </c>
       <c r="I106" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -26073,7 +26073,7 @@
         <v>168</v>
       </c>
       <c r="I107" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -26096,7 +26096,7 @@
         <v>873</v>
       </c>
       <c r="I108" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -26119,7 +26119,7 @@
         <v>517</v>
       </c>
       <c r="I109" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -26142,7 +26142,7 @@
         <v>168</v>
       </c>
       <c r="I110" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -26162,7 +26162,7 @@
         <v>1259</v>
       </c>
       <c r="I111" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -26185,7 +26185,7 @@
         <v>168</v>
       </c>
       <c r="I112" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -26205,7 +26205,7 @@
         <v>1259</v>
       </c>
       <c r="I113" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -26228,7 +26228,7 @@
         <v>1092</v>
       </c>
       <c r="I114" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -26251,7 +26251,7 @@
         <v>517</v>
       </c>
       <c r="I115" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -26274,7 +26274,7 @@
         <v>1344</v>
       </c>
       <c r="I116" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -26294,7 +26294,7 @@
         <v>1260</v>
       </c>
       <c r="I117" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -26317,7 +26317,7 @@
         <v>238</v>
       </c>
       <c r="I118" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -26340,7 +26340,7 @@
         <v>168</v>
       </c>
       <c r="I119" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -26363,7 +26363,7 @@
         <v>873</v>
       </c>
       <c r="I120" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -26386,7 +26386,7 @@
         <v>517</v>
       </c>
       <c r="I121" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -26409,7 +26409,7 @@
         <v>168</v>
       </c>
       <c r="I122" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -26429,7 +26429,7 @@
         <v>1260</v>
       </c>
       <c r="I123" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -26452,7 +26452,7 @@
         <v>168</v>
       </c>
       <c r="I124" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -26472,7 +26472,7 @@
         <v>1260</v>
       </c>
       <c r="I125" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -26495,7 +26495,7 @@
         <v>1092</v>
       </c>
       <c r="I126" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -26518,7 +26518,7 @@
         <v>517</v>
       </c>
       <c r="I127" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -26541,7 +26541,7 @@
         <v>1345</v>
       </c>
       <c r="I128" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -26561,7 +26561,7 @@
         <v>1261</v>
       </c>
       <c r="I129" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -26584,7 +26584,7 @@
         <v>238</v>
       </c>
       <c r="I130" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -26607,7 +26607,7 @@
         <v>168</v>
       </c>
       <c r="I131" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -26630,7 +26630,7 @@
         <v>873</v>
       </c>
       <c r="I132" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -26653,7 +26653,7 @@
         <v>517</v>
       </c>
       <c r="I133" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -26676,7 +26676,7 @@
         <v>168</v>
       </c>
       <c r="I134" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -26696,7 +26696,7 @@
         <v>1261</v>
       </c>
       <c r="I135" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -26719,7 +26719,7 @@
         <v>168</v>
       </c>
       <c r="I136" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -26739,7 +26739,7 @@
         <v>1261</v>
       </c>
       <c r="I137" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -26762,7 +26762,7 @@
         <v>1092</v>
       </c>
       <c r="I138" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -26785,7 +26785,7 @@
         <v>517</v>
       </c>
       <c r="I139" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -26808,7 +26808,7 @@
         <v>1346</v>
       </c>
       <c r="I140" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -26828,7 +26828,7 @@
         <v>1262</v>
       </c>
       <c r="I141" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -26851,7 +26851,7 @@
         <v>238</v>
       </c>
       <c r="I142" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -26874,7 +26874,7 @@
         <v>168</v>
       </c>
       <c r="I143" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -26897,7 +26897,7 @@
         <v>873</v>
       </c>
       <c r="I144" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -26920,7 +26920,7 @@
         <v>517</v>
       </c>
       <c r="I145" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -26943,7 +26943,7 @@
         <v>168</v>
       </c>
       <c r="I146" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -26963,7 +26963,7 @@
         <v>1262</v>
       </c>
       <c r="I147" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -26986,7 +26986,7 @@
         <v>168</v>
       </c>
       <c r="I148" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -27006,7 +27006,7 @@
         <v>1262</v>
       </c>
       <c r="I149" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -27029,7 +27029,7 @@
         <v>1092</v>
       </c>
       <c r="I150" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -27052,7 +27052,7 @@
         <v>517</v>
       </c>
       <c r="I151" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -27075,7 +27075,7 @@
         <v>1347</v>
       </c>
       <c r="I152" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -27095,7 +27095,7 @@
         <v>1263</v>
       </c>
       <c r="I153" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -27118,7 +27118,7 @@
         <v>238</v>
       </c>
       <c r="I154" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -27141,7 +27141,7 @@
         <v>168</v>
       </c>
       <c r="I155" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -27164,7 +27164,7 @@
         <v>873</v>
       </c>
       <c r="I156" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -27187,7 +27187,7 @@
         <v>517</v>
       </c>
       <c r="I157" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -27210,7 +27210,7 @@
         <v>168</v>
       </c>
       <c r="I158" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -27230,7 +27230,7 @@
         <v>1263</v>
       </c>
       <c r="I159" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -27253,7 +27253,7 @@
         <v>168</v>
       </c>
       <c r="I160" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -27273,7 +27273,7 @@
         <v>1263</v>
       </c>
       <c r="I161" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -27296,7 +27296,7 @@
         <v>1092</v>
       </c>
       <c r="I162" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -27319,7 +27319,7 @@
         <v>517</v>
       </c>
       <c r="I163" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -27342,7 +27342,7 @@
         <v>1348</v>
       </c>
       <c r="I164" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -27362,7 +27362,7 @@
         <v>1264</v>
       </c>
       <c r="I165" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -27385,7 +27385,7 @@
         <v>238</v>
       </c>
       <c r="I166" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -27408,7 +27408,7 @@
         <v>168</v>
       </c>
       <c r="I167" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -27431,7 +27431,7 @@
         <v>873</v>
       </c>
       <c r="I168" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -27454,7 +27454,7 @@
         <v>517</v>
       </c>
       <c r="I169" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -27477,7 +27477,7 @@
         <v>168</v>
       </c>
       <c r="I170" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -27497,7 +27497,7 @@
         <v>1264</v>
       </c>
       <c r="I171" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -27520,7 +27520,7 @@
         <v>168</v>
       </c>
       <c r="I172" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -27540,7 +27540,7 @@
         <v>1264</v>
       </c>
       <c r="I173" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -27563,7 +27563,7 @@
         <v>1092</v>
       </c>
       <c r="I174" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -27586,7 +27586,7 @@
         <v>517</v>
       </c>
       <c r="I175" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -27609,7 +27609,7 @@
         <v>1349</v>
       </c>
       <c r="I176" s="2">
-        <v>44104.81686123369</v>
+        <v>44105.52216921755</v>
       </c>
     </row>
   </sheetData>
